--- a/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
+++ b/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8565" activeTab="1" xr2:uid="{A0608B55-7DFE-418F-9C5B-8C7B58572C7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8565" xr2:uid="{A0608B55-7DFE-418F-9C5B-8C7B58572C7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Test_Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ED6BFC-0FA6-47AC-849F-C86612FC870D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5631238B-ED84-4DD9-8F6F-86DC17F9D8D2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
+++ b/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8565" xr2:uid="{A0608B55-7DFE-418F-9C5B-8C7B58572C7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Cases" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>TestId</t>
   </si>
@@ -411,111 +410,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ED6BFC-0FA6-47AC-849F-C86612FC870D}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5631238B-ED84-4DD9-8F6F-86DC17F9D8D2}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5631238B-ED84-4DD9-8F6F-86DC17F9D8D2}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
+++ b/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>TestId</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>admin1</t>
+  </si>
+  <si>
+    <t>login_message</t>
+  </si>
+  <si>
+    <t>Succssfully Logged in!</t>
+  </si>
+  <si>
+    <t>Invalid username or password!</t>
   </si>
 </sst>
 </file>
@@ -411,20 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5631238B-ED84-4DD9-8F6F-86DC17F9D8D2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +448,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -454,8 +467,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -468,8 +484,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -481,6 +500,9 @@
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
+++ b/Framework/styxframework/src/main/java/excelOps/Styx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>TestId</t>
   </si>
@@ -65,20 +65,73 @@
     <t>login_message</t>
   </si>
   <si>
-    <t>Succssfully Logged in!</t>
-  </si>
-  <si>
     <t>Invalid username or password!</t>
+  </si>
+  <si>
+    <t>signup_firstname</t>
+  </si>
+  <si>
+    <t>signup_lastname</t>
+  </si>
+  <si>
+    <t>signup_dob</t>
+  </si>
+  <si>
+    <t>signup_email</t>
+  </si>
+  <si>
+    <t>signup_phone</t>
+  </si>
+  <si>
+    <t>signup_password</t>
+  </si>
+  <si>
+    <t>signup_message</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>styxframework@gmail.com</t>
+  </si>
+  <si>
+    <t>styx</t>
+  </si>
+  <si>
+    <t>Successfully Logged in!</t>
+  </si>
+  <si>
+    <t>1/5/1998</t>
+  </si>
+  <si>
+    <t>9087463783</t>
+  </si>
+  <si>
+    <t>Thanks for signing up</t>
+  </si>
+  <si>
+    <t>Please enter mandatory fields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +154,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5631238B-ED84-4DD9-8F6F-86DC17F9D8D2}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,9 +490,12 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,10 +512,31 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -468,10 +550,34 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -485,15 +591,18 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -502,10 +611,13 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{CA32EE32-CAF2-48E4-B7AD-08DF71B0A607}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>